--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42975,6 +42975,41 @@
         <v>347900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>343400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43010,6 +43010,41 @@
         <v>343400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>431500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43045,6 +43045,41 @@
         <v>431500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>619100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43080,6 +43080,41 @@
         <v>619100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>159200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>159200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>245800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>245800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>34000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>258900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>258900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>96500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         <v>96500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>383000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>383000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>78500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>78500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>154400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>154400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>365300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,76 @@
         <v>365300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>330400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>385000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,76 @@
         <v>385000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>236300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>659500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,41 @@
         <v>659500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>451300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43570,6 +43570,41 @@
         <v>451300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1166700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>1166700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>124000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>124000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>452900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,76 @@
         <v>452900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1177400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1071000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>1071000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>515600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>515600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>336600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1420"/>
+  <dimension ref="A1:I1421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50080,6 +50080,41 @@
         <v>336600</v>
       </c>
     </row>
+    <row r="1421">
+      <c r="A1421" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1421" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1421" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>780400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1421"/>
+  <dimension ref="A1:I1422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50115,6 +50115,41 @@
         <v>780400</v>
       </c>
     </row>
+    <row r="1422">
+      <c r="A1422" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1422" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1422" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>183000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1422"/>
+  <dimension ref="A1:I1423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50150,6 +50150,41 @@
         <v>183000</v>
       </c>
     </row>
+    <row r="1423">
+      <c r="A1423" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1423" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1423" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>782000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1423"/>
+  <dimension ref="A1:I1424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50185,6 +50185,41 @@
         <v>782000</v>
       </c>
     </row>
+    <row r="1424">
+      <c r="A1424" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1424" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1424" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>276800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1424"/>
+  <dimension ref="A1:I1425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50220,6 +50220,41 @@
         <v>276800</v>
       </c>
     </row>
+    <row r="1425">
+      <c r="A1425" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1425" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1425" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>1482200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1425"/>
+  <dimension ref="A1:I1426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50255,6 +50255,41 @@
         <v>1482200</v>
       </c>
     </row>
+    <row r="1426">
+      <c r="A1426" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1426" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1426" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1426" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>278300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1426"/>
+  <dimension ref="A1:I1427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50290,6 +50290,41 @@
         <v>278300</v>
       </c>
     </row>
+    <row r="1427">
+      <c r="A1427" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1427" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1427" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1427" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>556300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1427"/>
+  <dimension ref="A1:I1428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50325,6 +50325,41 @@
         <v>556300</v>
       </c>
     </row>
+    <row r="1428">
+      <c r="A1428" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1428" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1428" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1428" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>965900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1428"/>
+  <dimension ref="A1:I1429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50360,6 +50360,41 @@
         <v>965900</v>
       </c>
     </row>
+    <row r="1429">
+      <c r="A1429" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1429" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1429" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1429" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>1656700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1429"/>
+  <dimension ref="A1:I1430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50395,6 +50395,41 @@
         <v>1656700</v>
       </c>
     </row>
+    <row r="1430">
+      <c r="A1430" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1430" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1430" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1430" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>750100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1430"/>
+  <dimension ref="A1:I1431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50430,6 +50430,41 @@
         <v>750100</v>
       </c>
     </row>
+    <row r="1431">
+      <c r="A1431" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1431" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1431" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1431" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>616100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1431"/>
+  <dimension ref="A1:I1432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50465,6 +50465,41 @@
         <v>616100</v>
       </c>
     </row>
+    <row r="1432">
+      <c r="A1432" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1432" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1432" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1432" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>304000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1432"/>
+  <dimension ref="A1:I1433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50500,6 +50500,41 @@
         <v>304000</v>
       </c>
     </row>
+    <row r="1433">
+      <c r="A1433" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1433" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1433" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1433" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>692600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1433"/>
+  <dimension ref="A1:I1434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50535,6 +50535,41 @@
         <v>692600</v>
       </c>
     </row>
+    <row r="1434">
+      <c r="A1434" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1434" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>918200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1434"/>
+  <dimension ref="A1:I1435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50570,6 +50570,41 @@
         <v>918200</v>
       </c>
     </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1435" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1435" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1435" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>1031800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1435"/>
+  <dimension ref="A1:I1436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50605,6 +50605,41 @@
         <v>1031800</v>
       </c>
     </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1436" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1436" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1436" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>576900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1436"/>
+  <dimension ref="A1:I1437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50640,6 +50640,41 @@
         <v>576900</v>
       </c>
     </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1437" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1437" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1437" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>554200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1437"/>
+  <dimension ref="A1:I1438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50675,6 +50675,41 @@
         <v>554200</v>
       </c>
     </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1438" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1438" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1438" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>649600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1438"/>
+  <dimension ref="A1:I1439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50710,6 +50710,41 @@
         <v>649600</v>
       </c>
     </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1439" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1439" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1439" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>530100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1439"/>
+  <dimension ref="A1:I1440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50745,6 +50745,41 @@
         <v>530100</v>
       </c>
     </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1440" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1440" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1440" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>339000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1440"/>
+  <dimension ref="A1:I1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50780,6 +50780,41 @@
         <v>339000</v>
       </c>
     </row>
+    <row r="1441">
+      <c r="A1441" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1441" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1441" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1441" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>753700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1441"/>
+  <dimension ref="A1:I1442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50815,6 +50815,41 @@
         <v>753700</v>
       </c>
     </row>
+    <row r="1442">
+      <c r="A1442" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1442" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1442" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1442" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>471000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1442"/>
+  <dimension ref="A1:I1443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50850,6 +50850,41 @@
         <v>471000</v>
       </c>
     </row>
+    <row r="1443">
+      <c r="A1443" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1443" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>322100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1443"/>
+  <dimension ref="A1:I1444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50885,6 +50885,41 @@
         <v>322100</v>
       </c>
     </row>
+    <row r="1444">
+      <c r="A1444" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1444" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1444" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1444" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>357200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1444"/>
+  <dimension ref="A1:I1445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50920,6 +50920,41 @@
         <v>357200</v>
       </c>
     </row>
+    <row r="1445">
+      <c r="A1445" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1445" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1445" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1445" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>345600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1445"/>
+  <dimension ref="A1:I1447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50955,6 +50955,76 @@
         <v>345600</v>
       </c>
     </row>
+    <row r="1446">
+      <c r="A1446" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1446" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1446" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1446" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>302800</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1447" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1447" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1447" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>230000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1447"/>
+  <dimension ref="A1:I1448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51025,6 +51025,41 @@
         <v>230000</v>
       </c>
     </row>
+    <row r="1448">
+      <c r="A1448" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1448" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1448" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1448" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>396400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1448"/>
+  <dimension ref="A1:I1451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51060,6 +51060,111 @@
         <v>396400</v>
       </c>
     </row>
+    <row r="1449">
+      <c r="A1449" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1449" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1449" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1449" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>341400</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1450" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1450" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1450" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>265200</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1451" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1451" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1451" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>395500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1451"/>
+  <dimension ref="A1:I1452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51165,6 +51165,41 @@
         <v>395500</v>
       </c>
     </row>
+    <row r="1452">
+      <c r="A1452" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1452" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1452" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1452" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>362200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1452"/>
+  <dimension ref="A1:I1453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51200,6 +51200,41 @@
         <v>362200</v>
       </c>
     </row>
+    <row r="1453">
+      <c r="A1453" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1453" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1453" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1453" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>425600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5250.xlsx
+++ b/data/5250.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1453"/>
+  <dimension ref="A1:I1456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51235,6 +51235,111 @@
         <v>425600</v>
       </c>
     </row>
+    <row r="1454">
+      <c r="A1454" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1454" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1454" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1454" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1455" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1455" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1455" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>575000</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1456" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>5250</t>
+        </is>
+      </c>
+      <c r="D1456" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E1456" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>1177800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
